--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/HAWAII_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/HAWAII_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D480"/>
+  <dimension ref="A1:D115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -550,7 +550,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -664,7 +664,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C24">
@@ -765,7 +765,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C28">
@@ -835,7 +835,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C33">
@@ -944,7 +944,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C41">
@@ -988,7 +988,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C44">
@@ -1040,7 +1040,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C48">
@@ -1131,7 +1131,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C55">
@@ -1170,7 +1170,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C58">
@@ -1196,7 +1196,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C60">
@@ -1260,7 +1260,7 @@
         <v>16</v>
       </c>
       <c r="D64">
-        <v>0.09142857142857143</v>
+        <v>0.09142857142857144</v>
       </c>
     </row>
     <row r="65">
@@ -1419,7 +1419,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C76">
@@ -1489,7 +1489,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C81">
@@ -1515,7 +1515,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C83">
@@ -1528,7 +1528,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C84">
@@ -1611,7 +1611,7 @@
     <row r="90">
       <c r="B90" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C90">
@@ -1914,7 +1914,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C111">
@@ -1979,76 +1979,6 @@
       </c>
       <c r="D115">
         <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 1,114,005</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>Junio de 2016</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/HAWAII_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/HAWAII_2016.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -460,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California Sur</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -491,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -504,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -535,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Total</t>
@@ -566,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -579,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -592,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -605,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Total</t>
@@ -649,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -680,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Otumba</t>
@@ -693,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Sultepec</t>
@@ -706,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -719,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Tultitlán</t>
@@ -732,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Total</t>
@@ -763,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Apaseo El Grande</t>
@@ -776,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -789,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>León</t>
@@ -802,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -815,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Total</t>
@@ -846,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -859,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -890,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -903,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>Chapantongo</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Metepec</t>
@@ -942,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Mineral Del Chico</t>
@@ -955,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -986,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Atotonilco El Alto</t>
@@ -999,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Casimiro Castillo</t>
@@ -1012,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Degollado</t>
@@ -1025,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>El Salto</t>
@@ -1038,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Encarnación De Díaz</t>
@@ -1051,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -1064,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>Hostotipaquillo</t>
@@ -1077,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Jocotepec</t>
@@ -1090,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -1103,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -1116,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -1129,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -1142,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tequila</t>
@@ -1155,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1168,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Unión De Tula</t>
@@ -1181,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Villa Purificación</t>
@@ -1194,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Zapotlán El Grande</t>
@@ -1207,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1238,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -1251,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Puruándiro</t>
@@ -1264,6 +1514,11 @@
       </c>
     </row>
     <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B65" t="inlineStr">
         <is>
           <t>Tacámbaro</t>
@@ -1277,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Tangamandapio</t>
@@ -1290,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Tocumbo</t>
@@ -1303,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Turicato</t>
@@ -1316,6 +1586,11 @@
       </c>
     </row>
     <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B69" t="inlineStr">
         <is>
           <t>Uruapan</t>
@@ -1329,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Villamar</t>
@@ -1342,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -1355,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1386,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1417,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Ixtlán Del Río</t>
@@ -1430,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>La Yesca</t>
@@ -1443,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>Rosamorada</t>
@@ -1456,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tepic</t>
@@ -1469,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1500,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Cosolapa</t>
@@ -1513,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -1526,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -1539,6 +1874,11 @@
       </c>
     </row>
     <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B85" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -1552,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -1565,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -1578,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1609,6 +1964,11 @@
       </c>
     </row>
     <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B90" t="inlineStr">
         <is>
           <t>Los Reyes De Juárez</t>
@@ -1622,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -1635,6 +2000,11 @@
       </c>
     </row>
     <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B92" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -1648,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -1661,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -1674,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Tochtepec</t>
@@ -1687,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1718,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1749,6 +2144,11 @@
       </c>
     </row>
     <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B100" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1780,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>El Fuerte</t>
@@ -1793,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1824,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1855,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1886,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -1899,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -1912,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -1925,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1956,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Total</t>
